--- a/biology/Botanique/Benetoraceae/Benetoraceae.xlsx
+++ b/biology/Botanique/Benetoraceae/Benetoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Benetoraceae  sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Coscinodiscophyceae et de l’ordre des Stictodiscales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Benetorus, qui est peut-être dédié à un personnage du nom de « Benet », mais non précisé par G.Hanna dans sa description[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Benetorus, qui est peut-être dédié à un personnage du nom de « Benet », mais non précisé par G.Hanna dans sa description.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La description originale de Hanna du Benetorus est la suivante « valve circulaire, presque plate avec une zone annulaire externe de rangées de perles grossières et rayonnantes et une zone circulaire centrale, hyaline au moins en partie et renfermant presque une zone perlée piriforme au centre[2]. »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La description originale de Hanna du Benetorus est la suivante « valve circulaire, presque plate avec une zone annulaire externe de rangées de perles grossières et rayonnantes et une zone circulaire centrale, hyaline au moins en partie et renfermant presque une zone perlée piriforme au centre. »
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benetorus est un genre fossile de l'étage Crétacé découvert par G. Hanna dans des gisements de schiste de Moreno Gulch (comté de Fresno, Californie)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benetorus est un genre fossile de l'étage Crétacé découvert par G. Hanna dans des gisements de schiste de Moreno Gulch (comté de Fresno, Californie).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (30 juillet 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (30 juillet 2022) :
 Benetorus Hanna, 1927  †</t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur et date) de ce taxon est Benetoraceae P.A.Sims[3], 1994[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur et date) de ce taxon est Benetoraceae P.A.Sims, 1994.
 </t>
         </is>
       </c>
